--- a/includes/worklog_evaluation/Charles_worklog.xlsx
+++ b/includes/worklog_evaluation/Charles_worklog.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worklog" sheetId="1" r:id="rId4"/>
+    <sheet name="Evaluation" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>TEAM:</t>
   </si>
@@ -46,7 +47,7 @@
     <t>Month:</t>
   </si>
   <si>
-    <t>May</t>
+    <t>May 2022</t>
   </si>
   <si>
     <t>N°</t>
@@ -61,7 +62,7 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Code Quality</t>
+    <t>Work Quality</t>
   </si>
   <si>
     <t>Deadline</t>
@@ -76,27 +77,98 @@
     <t>Work consistency</t>
   </si>
   <si>
-    <t>Reliability</t>
-  </si>
-  <si>
     <t>Créer une extension WP et l'héberger sur un dépôt github</t>
   </si>
   <si>
-    <t>VRAI</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Créer un post type pour y enregistrer des tâches</t>
   </si>
   <si>
     <t>Codage( Create a post type  )</t>
   </si>
   <si>
-    <t>FALSE</t>
+    <t xml:space="preserve">MONTH : </t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>POSITION HELD</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS</t>
+  </si>
+  <si>
+    <t>WHAT WORK WAS DONE?</t>
+  </si>
+  <si>
+    <t>UNSATISFACTORY (0 - 39)</t>
+  </si>
+  <si>
+    <t>FAIR (40 - 60)</t>
+  </si>
+  <si>
+    <t>GOOD (61 - 85)</t>
+  </si>
+  <si>
+    <t>EXCELLENT (86 - 100)</t>
+  </si>
+  <si>
+    <t>General Performance: Goals versus Accomplishment</t>
+  </si>
+  <si>
+    <t>Overall rating from Support Department</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Initiative &amp; Creativity: Ability to understand, plan work, and to proceed with a task without being told every detail + the ability to make constructive suggestions)</t>
+  </si>
+  <si>
+    <t>Additional Projects: Custom Jobs</t>
+  </si>
+  <si>
+    <t>TEAM MEMBER WORK LOG</t>
+  </si>
+  <si>
+    <t>ROUND-UP OF WORK DONE SINCE PREVIOUS PERORMANCE REVIEW</t>
+  </si>
+  <si>
+    <t>MOVING FORWARD</t>
+  </si>
+  <si>
+    <t>TOP STRENGTH(S)</t>
+  </si>
+  <si>
+    <t>GROWTH AREA(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Work quality | Deadline | Commit | Collaboration | Work consistency | </t>
+  </si>
+  <si>
+    <t>ADDITIONAL COMMENTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -114,15 +186,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
     </font>
     <font>
       <b val="1"/>
@@ -152,13 +215,13 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Courier New"/>
     </font>
     <font>
       <b val="1"/>
@@ -169,8 +232,71 @@
       <color rgb="FF0000FF"/>
       <name val="Bell MT"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +306,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4B4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -203,24 +341,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FF009AB2"/>
+        <bgColor rgb="FF009AB2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5B6CA"/>
-        <bgColor rgb="FF0C343D"/>
+        <fgColor rgb="FFA4C7CC"/>
+        <bgColor rgb="FFA4C7CC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -229,6 +361,118 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -240,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="79">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -250,50 +494,233 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="8" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="8" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="7" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="8" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="9" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="8" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="9" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="7" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="164" fillId="9" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,10 +1021,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,181 +1045,202 @@
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="21">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="11">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9">
-        <f>(E5+E6+0)/(E1)</f>
-        <v>95</v>
-      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16">
+        <v>98.333333333333</v>
+      </c>
+      <c r="L1"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2"/>
     </row>
     <row r="3" spans="1:12" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="30">
       <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:12" customHeight="1" ht="30">
       <c r="A5" s="1"/>
-      <c r="B5" s="13">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7">
+        <f>(G5+H5+K5)</f>
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
-        <f>(G5+H5+I5+J5+K5)</f>
-        <v>95</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="7">
+        <v>40</v>
+      </c>
+      <c r="H5" s="26">
+        <v>30</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15">
-        <v>50</v>
-      </c>
-      <c r="H5" s="16">
-        <v>10</v>
-      </c>
-      <c r="I5" s="16">
-        <v>5</v>
-      </c>
-      <c r="J5" s="16">
-        <v>15</v>
-      </c>
-      <c r="K5" s="16">
-        <v>15</v>
-      </c>
-      <c r="L5" s="17">
-        <f>(G5+H5)/2</f>
+      <c r="J5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="26">
         <v>30</v>
       </c>
+      <c r="L5"/>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="30">
       <c r="A6" s="1"/>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
-        <f>(G6+H6+I6+J6+K6)</f>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7">
+        <f>(G6+H6+K6)</f>
+        <v>100</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7">
+        <v>40</v>
+      </c>
+      <c r="H6" s="26">
+        <v>30</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="26">
+        <v>30</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" customHeight="1" ht="30">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7">
+        <f>(G7+H7+I7+J7+K7)</f>
         <v>95</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7">
         <v>50</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="26">
         <v>10</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="26">
         <v>5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J7" s="26">
         <v>15</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K7" s="26">
         <v>15</v>
       </c>
-      <c r="L6" s="17">
-        <f>(G6+H6)/2</f>
+      <c r="L7">
+        <f>(G7+H7)/2</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" customHeight="1" ht="24.75">
-      <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" customHeight="1" ht="29.25">
+    <row r="8" spans="1:12" customHeight="1" ht="24.75">
       <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" customHeight="1" ht="29.25">
@@ -819,35 +1267,35 @@
       <c r="D12" s="2"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" customHeight="1" ht="30">
+    <row r="13" spans="1:12" customHeight="1" ht="29.25">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" customHeight="1" ht="29.25">
+    <row r="14" spans="1:12" customHeight="1" ht="30">
       <c r="A14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" customHeight="1" ht="29.25">
+      <c r="A15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" customHeight="1" ht="30">
+    <row r="16" spans="1:12" customHeight="1" ht="29.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" customHeight="1" ht="33">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:12" customHeight="1" ht="30">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" customHeight="1" ht="30">
+    <row r="18" spans="1:12" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -859,13 +1307,13 @@
       <c r="D19" s="2"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" customHeight="1" ht="29.25">
+    <row r="20" spans="1:12" customHeight="1" ht="30">
       <c r="A20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" customHeight="1" ht="29.25">
       <c r="A21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -897,6 +1345,8 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12">
@@ -907,18 +1357,370 @@
       <c r="A28" s="1"/>
       <c r="L28"/>
     </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="L29"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="G1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="F1:J3"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="true" style="0"/>
+    <col min="2" max="2" width="70.85546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.85546875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.85546875" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" customHeight="1" ht="21">
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" customHeight="1" ht="18.75">
+      <c r="B3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" customHeight="1" ht="7.5">
+      <c r="B4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B5" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56">
+        <v>98.333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61">
+        <v>88.333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" customHeight="1" ht="20.25">
+      <c r="B20" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B21" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B22" s="68"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+    </row>
+    <row r="23" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B23" s="68"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" customHeight="1" ht="1.5">
+      <c r="B24" s="68"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+    </row>
+    <row r="25" spans="1:7" customHeight="1" ht="15.75" hidden="true">
+      <c r="B25" s="69"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" customHeight="1" ht="15.75">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="28"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:G25"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B11:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
